--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,13 +16,69 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>module</t>
   </si>
@@ -66,7 +122,7 @@
     <t>处方记录</t>
   </si>
   <si>
-    <t>quest_query_001</t>
+    <t>query_001</t>
   </si>
   <si>
     <t>查询手机号为15835547888的处方</t>
@@ -81,7 +137,7 @@
     <t>{"search":"15835547888","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":""}</t>
   </si>
   <si>
-    <t>[{"id": 1357, "shop_id": 27, "shop_name": "安徽德胜大药房-双岗店", "user_drugs_name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "diag_id": "21553344682942", "prescription_url": "upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png", "status": 4, "remark": "", "created_at": "1630463783", "user_drug": {"id": 378, "order_id": 1357, "name": "周宇", "card_no": "34240119881231991X", "phone": "15835547888", "birthday": "1988-12-31", "sex": 1, "age": 33, "address": "hsajijwhhyjjm", "is_diagnosis": 0, "is_allergy": 0, "is_taboo": 1, "is_adverse": 0, "created_at": "1630463783"}, "disease": [{"order_id": 1357, "disease_id": "97648", "disease_name": "中耳炎"}]}]</t>
+    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1476,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21621578066811","prescription_url":"","status":3,"remark":"不对症","created_at":"1636352894","user_drug":{"id":497,"order_id":1476,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636352894"},"disease":[{"order_id":1476,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload/mf-backend-project/prescription/2021-09-01/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]}]</t>
   </si>
   <si>
     <t>json</t>
@@ -96,7 +152,7 @@
     <t>walker</t>
   </si>
   <si>
-    <t>quest_query_002</t>
+    <t>query_002</t>
   </si>
   <si>
     <t>查询处方状态未【已取消】的订单</t>
@@ -105,7 +161,47 @@
     <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":"","status":3}</t>
   </si>
   <si>
-    <t>[{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1350,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"余龙艳","card_no":"342901198907176648","phone":"18155458989","diag_id":"21545315771410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629773729","user_drug":{"id":371,"order_id":1350,"name":"余龙艳","card_no":"342901198907176648","phone":"18155458989","birthday":"1989-07-17","sex":2,"age":32,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629773729"},"disease":[{"order_id":1350,"disease_id":"16331","disease_name":"头痛"}]},{"id":1347,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539310179622","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629274810","user_drug":{"id":368,"order_id":1347,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629274810"},"disease":[{"order_id":1347,"disease_id":"96113","disease_name":"神经性头痛"}]},{"id":1344,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539308142085","prescription_url":"upload/mf-backend-project/prescription/2021-08-18/b87f7563f205f2bf1d3ec296cd23f3bd.png","status":3,"remark":"互联网医院结束问诊","created_at":"1629267078","user_drug":{"id":365,"order_id":1344,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629267078"},"disease":[{"order_id":1344,"disease_id":"96143","disease_name":"失眠"}]},{"id":1343,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539308080057","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629252986","user_drug":{"id":364,"order_id":1343,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629252986"},"disease":[{"order_id":1343,"disease_id":"99540","disease_name":"消化不良"}]},{"id":1342,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539304628334","prescription_url":"","status":3,"remark":"不对症","created_at":"1629252921","user_drug":{"id":363,"order_id":1342,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629252921"},"disease":[{"order_id":1342,"disease_id":"27853","disease_name":"风邪外袭证"}]},{"id":1341,"shop_id":6,"shop_name":"德胜测试门店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21539307862538","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629252854","user_drug":{"id":362,"order_id":1341,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629252854"},"disease":[{"order_id":1341,"disease_id":"8987","disease_name":"感冒"},{"order_id":1341,"disease_id":"98487","disease_name":"急性咽喉痛"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]}]</t>
+    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1492,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629586369185","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1637042548","user_drug":{"id":513,"order_id":1492,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042548"},"disease":[{"order_id":1492,"disease_id":"27901","disease_name":"风热外袭证"}]},{"id":1491,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629586437979","prescription_url":"","status":3,"remark":"用法用量错误","created_at":"1637042513","user_drug":{"id":512,"order_id":1491,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042513"},"disease":[{"order_id":1491,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1491,"disease_id":"27853","disease_name":"风邪外袭证"},{"order_id":1491,"disease_id":"98584","disease_name":"慢性鼻炎"}]},{"id":1489,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086083","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031217","user_drug":{"id":510,"order_id":1489,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031217"},"disease":[{"order_id":1489,"disease_id":"8988","disease_name":"胃肠型感冒"}]},{"id":1488,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629638086075","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031090","user_drug":{"id":509,"order_id":1488,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031090"},"disease":[{"order_id":1488,"disease_id":"8023","disease_name":"冠心病"},{"order_id":1488,"disease_id":"27344","disease_name":"中风病"},{"order_id":1488,"disease_id":"92831","disease_name":"缺铁性贫血"},{"order_id":1488,"disease_id":"97856","disease_name":"心绞痛"},{"order_id":1488,"disease_id":"9047","disease_name":"上呼吸道感染"}]},{"id":1487,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637896497","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030971","user_drug":{"id":508,"order_id":1487,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030971"},"disease":[{"order_id":1487,"disease_id":"8987","disease_name":"感冒"},{"order_id":1487,"disease_id":"98577","disease_name":"过敏性鼻炎(变应性鼻炎)"},{"order_id":1487,"disease_id":"9176","disease_name":"鼻窦炎"},{"order_id":1487,"disease_id":"100702","disease_name":"黑头粉刺"}]},{"id":1486,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637445842","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030908","user_drug":{"id":507,"order_id":1486,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030908"},"disease":[{"order_id":1486,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1486,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1485,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086063","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030862","user_drug":{"id":506,"order_id":1485,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030862"},"disease":[{"order_id":1485,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1484,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21624610654159","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1636621641","user_drug":{"id":505,"order_id":1484,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636621641"},"disease":[{"order_id":1484,"disease_id":"12565","disease_name":"骨质增生"},{"order_id":1484,"disease_id":"101714","disease_name":"椎动脉型颈椎病"},{"order_id":1484,"disease_id":"101715","disease_name":"脊髓型颈椎病"},{"order_id":1484,"disease_id":"101111","disease_name":"骨关节炎"}]},{"id":1483,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21624607867997","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1636621600","user_drug":{"id":504,"order_id":1483,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636621600"},"disease":[{"order_id":1483,"disease_id":"776","disease_name":"幽门螺旋杆菌感染"},{"order_id":1483,"disease_id":"12565","disease_name":"骨质增生"},{"order_id":1483,"disease_id":"9108","disease_name":"肺炎"},{"order_id":1483,"disease_id":"11306","disease_name":"软组织感染"},{"order_id":1483,"disease_id":"81949","disease_name":"钩端螺旋体病"}]}]</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>查询处方状态为【待药师开方】，
+药店为【安徽德胜大药房-双岗店】</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":"","end_time":"","page":1,"limit":10,"shop_id":27,"status":0}</t>
+  </si>
+  <si>
+    <t>[{"id":1479,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21621587929237","prescription_url":"","status":0,"remark":"","created_at":"1636369376","user_drug":{"id":500,"order_id":1479,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1636369376"},"disease":[{"order_id":1479,"disease_id":"79962","disease_name":"湿热"},{"order_id":1479,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1479,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1479,"disease_id":"8987","disease_name":"感冒"},{"order_id":1479,"disease_id":"16331","disease_name":"头痛"},{"order_id":1479,"disease_id":"12565","disease_name":"骨质增生"}]}]</t>
+  </si>
+  <si>
+    <t>query_004</t>
+  </si>
+  <si>
+    <t>查询日期在【2021/11/16-2021/11/18】
+的处方单</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":"","status":""}</t>
+  </si>
+  <si>
+    <t>[{"id":1493,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21629586437983","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/b8b14bc6f33ba9014b825fac068a993f.png","status":3,"remark":"门店审核不通过","created_at":"1637042712","user_drug":{"id":514,"order_id":1493,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042712"},"disease":[{"order_id":1493,"disease_id":"8987","disease_name":"感冒"},{"order_id":1493,"disease_id":"16080","disease_name":"鼻塞"},{"order_id":1493,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1493,"disease_id":"9820","disease_name":"牙拥挤"}]},{"id":1492,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629586369185","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1637042548","user_drug":{"id":513,"order_id":1492,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042548"},"disease":[{"order_id":1492,"disease_id":"27901","disease_name":"风热外袭证"}]},{"id":1491,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629586437979","prescription_url":"","status":3,"remark":"用法用量错误","created_at":"1637042513","user_drug":{"id":512,"order_id":1491,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042513"},"disease":[{"order_id":1491,"disease_id":"98579","disease_name":"过敏性鼻炎"},{"order_id":1491,"disease_id":"27853","disease_name":"风邪外袭证"},{"order_id":1491,"disease_id":"98584","disease_name":"慢性鼻炎"}]},{"id":1490,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629639020804","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/2d92161c0b58d229cb93a95822cab026.png","status":5,"remark":"","created_at":"1637042465","user_drug":{"id":511,"order_id":1490,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042465"},"disease":[{"order_id":1490,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1490,"disease_id":"8987","disease_name":"感冒"},{"order_id":1490,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1489,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086083","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031217","user_drug":{"id":510,"order_id":1489,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031217"},"disease":[{"order_id":1489,"disease_id":"8988","disease_name":"胃肠型感冒"}]},{"id":1488,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629638086075","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637031090","user_drug":{"id":509,"order_id":1488,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637031090"},"disease":[{"order_id":1488,"disease_id":"8023","disease_name":"冠心病"},{"order_id":1488,"disease_id":"27344","disease_name":"中风病"},{"order_id":1488,"disease_id":"92831","disease_name":"缺铁性贫血"},{"order_id":1488,"disease_id":"97856","disease_name":"心绞痛"},{"order_id":1488,"disease_id":"9047","disease_name":"上呼吸道感染"}]},{"id":1487,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637896497","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030971","user_drug":{"id":508,"order_id":1487,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030971"},"disease":[{"order_id":1487,"disease_id":"8987","disease_name":"感冒"},{"order_id":1487,"disease_id":"98577","disease_name":"过敏性鼻炎(变应性鼻炎)"},{"order_id":1487,"disease_id":"9176","disease_name":"鼻窦炎"},{"order_id":1487,"disease_id":"100702","disease_name":"黑头粉刺"}]},{"id":1486,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21629637445842","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030908","user_drug":{"id":507,"order_id":1486,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030908"},"disease":[{"order_id":1486,"disease_id":"27867","disease_name":"风寒外袭证"},{"order_id":1486,"disease_id":"102434","disease_name":"骨质疏松"}]},{"id":1485,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21629638086063","prescription_url":"","status":3,"remark":"无法开具处方单","created_at":"1637030862","user_drug":{"id":506,"order_id":1485,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637030862"},"disease":[{"order_id":1485,"disease_id":"12565","disease_name":"骨质增生"}]}]</t>
+  </si>
+  <si>
+    <t>query_005</t>
+  </si>
+  <si>
+    <t>查询日期在【2021/11/16-2021/11/18】,
+店铺：安徽德胜大药房-双岗店,
+状态：已完成</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1636992000,"end_time":1637251199,"page":1,"limit":10,"shop_id":27,"status":5}</t>
+  </si>
+  <si>
+    <t>[{"id":1490,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21629639020804","prescription_url":"upload/mf-backend-project/prescription/2021-11-16/2d92161c0b58d229cb93a95822cab026.png","status":5,"remark":"","created_at":"1637042465","user_drug":{"id":511,"order_id":1490,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1637042465"},"disease":[{"order_id":1490,"disease_id":"16091","disease_name":"咽痛"},{"order_id":1490,"disease_id":"8987","disease_name":"感冒"},{"order_id":1490,"disease_id":"102434","disease_name":"骨质疏松"}]}]</t>
   </si>
   <si>
     <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
@@ -138,6 +234,72 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF00FF00"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF808000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
@@ -146,58 +308,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF00FF00"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF808000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -211,6 +323,36 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -219,8 +361,17 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -235,67 +386,12 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <b val="1"/>
       <color rgb="0000FF00"/>
     </font>
@@ -320,43 +416,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,139 +566,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,56 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +663,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -634,10 +730,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -646,137 +742,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="5" fillId="13" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="26" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="26" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="21" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="22" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,8 +898,8 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -814,15 +910,12 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -833,6 +926,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,14 +1285,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="G6" pane="bottomLeft" sqref="G6"/>
+      <selection activeCell="D3" pane="bottomLeft" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="10.375"/>
     <col customWidth="1" max="2" min="2" style="2" width="15"/>
-    <col customWidth="1" max="3" min="3" style="2" width="27.375"/>
+    <col customWidth="1" max="3" min="3" style="2" width="33.5"/>
     <col customWidth="1" max="4" min="4" style="2" width="56"/>
     <col customWidth="1" max="5" min="5" style="2" width="8.25"/>
     <col customWidth="1" max="6" min="6" style="2" width="21.375"/>
@@ -1256,7 +1355,7 @@
       <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1269,17 +1368,17 @@
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="7" t="n"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1293,7 +1392,7 @@
       <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1306,199 +1405,265 @@
       <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="7" t="n"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" s="2" spans="1:13">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="17" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="7" t="n"/>
+    <row customHeight="1" ht="84" r="4" s="2" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="16" t="n"/>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="n"/>
-      <c r="M4" s="17" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="5" s="2" spans="1:13">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="17" t="n"/>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="7" t="n"/>
+      <c r="L4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42" r="5" s="2" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="16" t="n"/>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="7" t="n"/>
-      <c r="L5" s="7" t="n"/>
-      <c r="M5" s="17" t="n"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="6" s="2" spans="1:13">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="17" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="7" t="n"/>
+      <c r="L5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="52" r="6" s="2" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="16" t="n"/>
+      <c r="H6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="17" t="n"/>
+      <c r="L6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row customHeight="1" ht="55.5" r="7" s="2" spans="1:13">
       <c r="A7" s="8" t="n"/>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="8" t="n"/>
-      <c r="D7" s="17" t="n"/>
+      <c r="D7" s="16" t="n"/>
       <c r="E7" s="8" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="16" t="n"/>
+      <c r="I7" s="11" t="n"/>
+      <c r="J7" s="15" t="n"/>
       <c r="K7" s="7" t="n"/>
       <c r="L7" s="7" t="n"/>
-      <c r="M7" s="17" t="n"/>
+      <c r="M7" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="57" r="8" s="2" spans="1:13">
       <c r="A8" s="8" t="n"/>
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n"/>
-      <c r="D8" s="17" t="n"/>
+      <c r="D8" s="16" t="n"/>
       <c r="E8" s="8" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="16" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="15" t="n"/>
       <c r="K8" s="7" t="n"/>
       <c r="L8" s="7" t="n"/>
-      <c r="M8" s="17" t="n"/>
+      <c r="M8" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="52.5" r="9" s="2" spans="1:13">
       <c r="A9" s="8" t="n"/>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n"/>
-      <c r="D9" s="17" t="n"/>
+      <c r="D9" s="16" t="n"/>
       <c r="E9" s="8" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="16" t="n"/>
+      <c r="I9" s="11" t="n"/>
+      <c r="J9" s="15" t="n"/>
       <c r="K9" s="7" t="n"/>
       <c r="L9" s="7" t="n"/>
-      <c r="M9" s="17" t="n"/>
+      <c r="M9" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="51.75" r="10" s="2" spans="1:13">
       <c r="A10" s="8" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n"/>
-      <c r="D10" s="17" t="n"/>
+      <c r="D10" s="16" t="n"/>
       <c r="E10" s="8" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="16" t="n"/>
+      <c r="I10" s="11" t="n"/>
+      <c r="J10" s="15" t="n"/>
       <c r="K10" s="7" t="n"/>
       <c r="L10" s="7" t="n"/>
-      <c r="M10" s="17" t="n"/>
+      <c r="M10" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="35.25" r="11" s="2" spans="1:13">
       <c r="A11" s="8" t="n"/>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n"/>
-      <c r="D11" s="17" t="n"/>
+      <c r="D11" s="16" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="16" t="n"/>
+      <c r="I11" s="11" t="n"/>
+      <c r="J11" s="15" t="n"/>
       <c r="K11" s="7" t="n"/>
-      <c r="L11" s="17" t="n"/>
-      <c r="M11" s="17" t="n"/>
+      <c r="L11" s="16" t="n"/>
+      <c r="M11" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="12" s="2" spans="1:13">
       <c r="A12" s="8" t="n"/>
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
-      <c r="D12" s="17" t="n"/>
+      <c r="D12" s="16" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
-      <c r="I12" s="15" t="n"/>
-      <c r="J12" s="16" t="n"/>
+      <c r="I12" s="11" t="n"/>
+      <c r="J12" s="15" t="n"/>
       <c r="K12" s="7" t="n"/>
-      <c r="L12" s="17" t="n"/>
-      <c r="M12" s="17" t="n"/>
+      <c r="L12" s="16" t="n"/>
+      <c r="M12" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="13" s="2" spans="1:13">
       <c r="A13" s="8" t="n"/>
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="n"/>
-      <c r="D13" s="17" t="n"/>
+      <c r="D13" s="16" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="16" t="n"/>
-      <c r="K13" s="17" t="n"/>
-      <c r="L13" s="17" t="n"/>
-      <c r="M13" s="17" t="n"/>
+      <c r="I13" s="11" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="16" t="n"/>
+      <c r="L13" s="16" t="n"/>
+      <c r="M13" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="30" r="14" s="2" spans="1:13">
       <c r="A14" s="8" t="n"/>
       <c r="B14" s="8" t="n"/>
       <c r="C14" s="8" t="n"/>
-      <c r="D14" s="17" t="n"/>
+      <c r="D14" s="16" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="16" t="n"/>
-      <c r="K14" s="17" t="n"/>
-      <c r="L14" s="17" t="n"/>
-      <c r="M14" s="17" t="n"/>
+      <c r="I14" s="11" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="16" t="n"/>
+      <c r="M14" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="26.25" r="15" s="2" spans="1:13">
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="8" t="n"/>
       <c r="C15" s="8" t="n"/>
-      <c r="D15" s="17" t="n"/>
+      <c r="D15" s="16" t="n"/>
       <c r="E15" s="8" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
-      <c r="I15" s="15" t="n"/>
-      <c r="J15" s="16" t="n"/>
-      <c r="K15" s="17" t="n"/>
-      <c r="L15" s="17" t="n"/>
-      <c r="M15" s="17" t="n"/>
+      <c r="I15" s="11" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="16" t="n"/>
+      <c r="L15" s="16" t="n"/>
+      <c r="M15" s="16" t="n"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="10" t="n"/>
@@ -1588,8 +1753,7 @@
   </sheetData>
   <autoFilter ref="A1:M15"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://mf-backend.lyky.xyz:8188/backend/order/list" ref="D2" tooltip="http://mf-backend.lyky.xyz:8188/backend/order/list" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://mf-backend.lyky.xyz:8188/backend/order/list" ref="D3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://mf-backend.lyky.xyz:8188/backend/order/list" ref="D6" tooltip="http://mf-backend.lyky.xyz:8188/backend/order/list" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1605,17 +1769,11 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row customHeight="1" ht="378" r="1" s="2" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1636,7 +1794,7 @@
   <sheetData>
     <row customHeight="1" ht="409.5" r="1" s="2" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -11,6 +11,41 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>

--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -11,6 +11,84 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>

--- a/report/excelReport/DemoAPITestCase.xlsx
+++ b/report/excelReport/DemoAPITestCase.xlsx
@@ -11,84 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
